--- a/output/1Y_P106_KFSDIV.xlsx
+++ b/output/1Y_P106_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>11.2587</v>
       </c>
       <c r="C2" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D2" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>888.202</v>
+        <v>886.4227</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>11.6434</v>
       </c>
       <c r="C3" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D3" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E3" s="1">
-        <v>888.202</v>
+        <v>886.4227</v>
       </c>
       <c r="F3" s="1">
-        <v>858.8557</v>
+        <v>857.1404</v>
       </c>
       <c r="H3" s="1">
-        <v>10341.6913</v>
+        <v>10300.32</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10341.6913</v>
+        <v>10300.32</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0342</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>11.3141</v>
       </c>
       <c r="C4" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D4" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E4" s="1">
-        <v>1747.0577</v>
+        <v>1743.5631</v>
       </c>
       <c r="F4" s="1">
-        <v>883.8529</v>
+        <v>882.0830999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>19766.3852</v>
+        <v>19687.4424</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19766.3852</v>
+        <v>19687.4424</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.4478</v>
+        <v>11.4708</v>
       </c>
       <c r="M4" s="1">
         <v>0.4</v>
       </c>
       <c r="N4" s="1">
-        <v>319.7527</v>
+        <v>319.1122</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9680.247300000001</v>
+        <v>-9680.8878</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0283</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>11.003</v>
       </c>
       <c r="C5" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D5" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E5" s="1">
-        <v>2630.9106</v>
+        <v>2625.6462</v>
       </c>
       <c r="F5" s="1">
-        <v>912.072</v>
+        <v>910.2373</v>
       </c>
       <c r="H5" s="1">
-        <v>28947.9089</v>
+        <v>28832.2209</v>
       </c>
       <c r="I5" s="1">
-        <v>319.7527</v>
+        <v>319.1122</v>
       </c>
       <c r="J5" s="1">
-        <v>29267.6617</v>
+        <v>29151.3331</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.4029</v>
+        <v>11.4258</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10035.5281</v>
+        <v>-10035.4569</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0168</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>11.1102</v>
       </c>
       <c r="C6" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D6" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E6" s="1">
-        <v>3542.9826</v>
+        <v>3535.8835</v>
       </c>
       <c r="F6" s="1">
-        <v>903.2635</v>
+        <v>901.4558</v>
       </c>
       <c r="H6" s="1">
-        <v>39363.2448</v>
+        <v>39205.8759</v>
       </c>
       <c r="I6" s="1">
-        <v>284.2246</v>
+        <v>283.6553</v>
       </c>
       <c r="J6" s="1">
-        <v>39647.4694</v>
+        <v>39489.5311</v>
       </c>
       <c r="K6" s="1">
-        <v>40035.5281</v>
+        <v>40035.4569</v>
       </c>
       <c r="L6" s="1">
-        <v>11.3</v>
+        <v>11.3226</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10035.5281</v>
+        <v>-10035.4569</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0097</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>10.623</v>
       </c>
       <c r="C7" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D7" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E7" s="1">
-        <v>4446.246</v>
+        <v>4437.3393</v>
       </c>
       <c r="F7" s="1">
-        <v>944.6981</v>
+        <v>942.801</v>
       </c>
       <c r="H7" s="1">
-        <v>47232.4714</v>
+        <v>47043.3399</v>
       </c>
       <c r="I7" s="1">
-        <v>248.6966</v>
+        <v>248.1983</v>
       </c>
       <c r="J7" s="1">
-        <v>47481.168</v>
+        <v>47291.5383</v>
       </c>
       <c r="K7" s="1">
-        <v>50071.0562</v>
+        <v>50070.9138</v>
       </c>
       <c r="L7" s="1">
-        <v>11.2614</v>
+        <v>11.284</v>
       </c>
       <c r="M7" s="1">
         <v>0.1</v>
       </c>
       <c r="N7" s="1">
-        <v>318.8684</v>
+        <v>318.2295</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9716.6597</v>
+        <v>-9717.2274</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0436</v>
+        <v>-0.0444</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>9.977</v>
       </c>
       <c r="C8" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E8" s="1">
-        <v>5390.9441</v>
+        <v>5380.1403</v>
       </c>
       <c r="F8" s="1">
-        <v>1011.193</v>
+        <v>1009.1523</v>
       </c>
       <c r="H8" s="1">
-        <v>53785.4496</v>
+        <v>53570.057</v>
       </c>
       <c r="I8" s="1">
-        <v>532.0368999999999</v>
+        <v>530.971</v>
       </c>
       <c r="J8" s="1">
-        <v>54317.4865</v>
+        <v>54101.028</v>
       </c>
       <c r="K8" s="1">
-        <v>60106.5842</v>
+        <v>60106.3707</v>
       </c>
       <c r="L8" s="1">
-        <v>11.1495</v>
+        <v>11.1719</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10088.6728</v>
+        <v>-10088.4952</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.055</v>
+        <v>-0.0557</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>10.5542</v>
       </c>
       <c r="C9" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D9" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E9" s="1">
-        <v>6402.1372</v>
+        <v>6389.2926</v>
       </c>
       <c r="F9" s="1">
-        <v>955.8918</v>
+        <v>953.9587</v>
       </c>
       <c r="H9" s="1">
-        <v>67569.436</v>
+        <v>67299.0576</v>
       </c>
       <c r="I9" s="1">
-        <v>443.3641</v>
+        <v>442.4758</v>
       </c>
       <c r="J9" s="1">
-        <v>68012.80009999999</v>
+        <v>67741.5334</v>
       </c>
       <c r="K9" s="1">
-        <v>70195.2571</v>
+        <v>70194.8659</v>
       </c>
       <c r="L9" s="1">
-        <v>10.9643</v>
+        <v>10.9863</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10088.6728</v>
+        <v>-10088.4952</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0575</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.7815</v>
       </c>
       <c r="C10" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D10" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E10" s="1">
-        <v>7358.0289</v>
+        <v>7343.2513</v>
       </c>
       <c r="F10" s="1">
-        <v>935.7393</v>
+        <v>933.8519</v>
       </c>
       <c r="H10" s="1">
-        <v>79330.5888</v>
+        <v>79012.64969999999</v>
       </c>
       <c r="I10" s="1">
-        <v>354.6913</v>
+        <v>353.9806</v>
       </c>
       <c r="J10" s="1">
-        <v>79685.2801</v>
+        <v>79366.6303</v>
       </c>
       <c r="K10" s="1">
-        <v>80283.9299</v>
+        <v>80283.361</v>
       </c>
       <c r="L10" s="1">
-        <v>10.9111</v>
+        <v>10.9329</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10088.6728</v>
+        <v>-10088.4952</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0214</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.9292</v>
       </c>
       <c r="C11" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D11" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E11" s="1">
-        <v>8293.7682</v>
+        <v>8277.1032</v>
       </c>
       <c r="F11" s="1">
-        <v>923.0934</v>
+        <v>921.2311999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>90644.2512</v>
+        <v>90280.8474</v>
       </c>
       <c r="I11" s="1">
-        <v>266.0185</v>
+        <v>265.4855</v>
       </c>
       <c r="J11" s="1">
-        <v>90910.2696</v>
+        <v>90546.33289999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90372.6027</v>
+        <v>90371.85619999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.8964</v>
+        <v>10.9183</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10088.6728</v>
+        <v>-10088.4952</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0137</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>10.337</v>
       </c>
       <c r="C12" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D12" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E12" s="1">
-        <v>9216.8616</v>
+        <v>9198.3344</v>
       </c>
       <c r="F12" s="1">
-        <v>975.9769</v>
+        <v>974.0092</v>
       </c>
       <c r="H12" s="1">
-        <v>95274.6985</v>
+        <v>94892.777</v>
       </c>
       <c r="I12" s="1">
-        <v>177.3456</v>
+        <v>176.9903</v>
       </c>
       <c r="J12" s="1">
-        <v>95452.0442</v>
+        <v>95069.7674</v>
       </c>
       <c r="K12" s="1">
-        <v>100461.2755</v>
+        <v>100460.3514</v>
       </c>
       <c r="L12" s="1">
-        <v>10.8997</v>
+        <v>10.9216</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10088.6728</v>
+        <v>-10088.4952</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0541</v>
+        <v>-0.0545</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>9.6417</v>
       </c>
       <c r="C13" s="1">
-        <v>9.6417</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>9.6417</v>
+        <v>9.661</v>
       </c>
       <c r="E13" s="1">
-        <v>10192.8385</v>
+        <v>10172.3436</v>
       </c>
       <c r="F13" s="1">
-        <v>1046.3583</v>
+        <v>1044.2496</v>
       </c>
       <c r="H13" s="1">
-        <v>98276.2908</v>
+        <v>97882.359</v>
       </c>
       <c r="I13" s="1">
-        <v>88.6728</v>
+        <v>88.4952</v>
       </c>
       <c r="J13" s="1">
-        <v>98364.9636</v>
+        <v>97970.8542</v>
       </c>
       <c r="K13" s="1">
-        <v>110549.9483</v>
+        <v>110548.8465</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8458</v>
+        <v>10.8676</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4147.5877</v>
+        <v>4139.2505</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5941.0851</v>
+        <v>-5949.2447</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0672</v>
+        <v>-0.06759999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>9.1572</v>
       </c>
       <c r="C14" s="1">
-        <v>9.1572</v>
+        <v>9.1389</v>
       </c>
       <c r="D14" s="1">
-        <v>9.1572</v>
+        <v>9.175599999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>11239.1968</v>
+        <v>11216.5932</v>
       </c>
       <c r="F14" s="1">
-        <v>-11239.1968</v>
+        <v>-11216.5932</v>
       </c>
       <c r="H14" s="1">
-        <v>102919.5727</v>
+        <v>102507.3233</v>
       </c>
       <c r="I14" s="1">
-        <v>4147.5877</v>
+        <v>4139.2505</v>
       </c>
       <c r="J14" s="1">
-        <v>107067.1605</v>
+        <v>106646.5738</v>
       </c>
       <c r="K14" s="1">
-        <v>120638.6212</v>
+        <v>120637.3417</v>
       </c>
       <c r="L14" s="1">
-        <v>10.7337</v>
+        <v>10.7553</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>102919.5727</v>
+        <v>102507.3233</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.012</v>
+        <v>-0.0123</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>11.2587</v>
       </c>
       <c r="C2" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D2" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>888.202</v>
+        <v>886.4227</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>11.6434</v>
       </c>
       <c r="C3" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D3" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E3" s="1">
-        <v>888.202</v>
+        <v>886.4227</v>
       </c>
       <c r="F3" s="1">
-        <v>829.5093000000001</v>
+        <v>834.7329</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10341.6913</v>
+        <v>10300.32</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10341.6913</v>
+        <v>10300.32</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9658.3087</v>
+        <v>-9738.578600000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0342</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>11.3141</v>
       </c>
       <c r="C4" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D4" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E4" s="1">
-        <v>1717.7113</v>
+        <v>1721.1556</v>
       </c>
       <c r="F4" s="1">
-        <v>914.0534</v>
+        <v>905.1427</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19434.3577</v>
+        <v>19434.4283</v>
       </c>
       <c r="I4" s="1">
-        <v>341.6913</v>
+        <v>261.4214</v>
       </c>
       <c r="J4" s="1">
-        <v>19776.049</v>
+        <v>19695.8497</v>
       </c>
       <c r="K4" s="1">
-        <v>19658.3087</v>
+        <v>19738.5786</v>
       </c>
       <c r="L4" s="1">
-        <v>11.4445</v>
+        <v>11.4682</v>
       </c>
       <c r="M4" s="1">
         <v>0.4</v>
       </c>
       <c r="N4" s="1">
-        <v>319.7527</v>
+        <v>319.1122</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10021.9386</v>
+        <v>-9942.309300000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0278</v>
+        <v>-0.0298</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>11.003</v>
       </c>
       <c r="C5" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D5" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E5" s="1">
-        <v>2631.7647</v>
+        <v>2626.2983</v>
       </c>
       <c r="F5" s="1">
-        <v>937.9035</v>
+        <v>935.9654</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>28957.307</v>
+        <v>28839.3811</v>
       </c>
       <c r="I5" s="1">
-        <v>319.7527</v>
+        <v>319.1122</v>
       </c>
       <c r="J5" s="1">
-        <v>29277.0597</v>
+        <v>29158.4933</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.3992</v>
+        <v>11.4229</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10319.7527</v>
+        <v>-10319.1122</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0168</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>11.1102</v>
       </c>
       <c r="C6" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D6" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E6" s="1">
-        <v>3569.6682</v>
+        <v>3562.2637</v>
       </c>
       <c r="F6" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39659.7281</v>
+        <v>39498.3794</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39659.7281</v>
+        <v>39498.3794</v>
       </c>
       <c r="K6" s="1">
-        <v>40319.7527</v>
+        <v>40319.1122</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2951</v>
+        <v>11.3184</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0097</v>
+        <v>0.008699999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>10.623</v>
       </c>
       <c r="C7" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D7" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E7" s="1">
-        <v>4469.734</v>
+        <v>4460.5345</v>
       </c>
       <c r="F7" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>47481.9838</v>
+        <v>47289.2485</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47481.9838</v>
+        <v>47289.2485</v>
       </c>
       <c r="K7" s="1">
-        <v>50319.7527</v>
+        <v>50319.1122</v>
       </c>
       <c r="L7" s="1">
-        <v>11.2579</v>
+        <v>11.281</v>
       </c>
       <c r="M7" s="1">
         <v>0.1</v>
       </c>
       <c r="N7" s="1">
-        <v>321.2701</v>
+        <v>320.6037</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9678.7299</v>
+        <v>-9679.3963</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0439</v>
+        <v>-0.0446</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>9.977</v>
       </c>
       <c r="C8" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E8" s="1">
-        <v>5411.0876</v>
+        <v>5400.0044</v>
       </c>
       <c r="F8" s="1">
-        <v>1034.5064</v>
+        <v>1032.3701</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>53986.4212</v>
+        <v>53767.8442</v>
       </c>
       <c r="I8" s="1">
-        <v>321.2701</v>
+        <v>320.6037</v>
       </c>
       <c r="J8" s="1">
-        <v>54307.6913</v>
+        <v>54088.4479</v>
       </c>
       <c r="K8" s="1">
-        <v>60319.7527</v>
+        <v>60319.1122</v>
       </c>
       <c r="L8" s="1">
-        <v>11.1474</v>
+        <v>11.1702</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10321.2701</v>
+        <v>-10320.6037</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0552</v>
+        <v>-0.0559</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>10.5542</v>
       </c>
       <c r="C9" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D9" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E9" s="1">
-        <v>6445.594</v>
+        <v>6432.3745</v>
       </c>
       <c r="F9" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>68028.08809999999</v>
+        <v>67752.8441</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>68028.08809999999</v>
+        <v>67752.8441</v>
       </c>
       <c r="K9" s="1">
-        <v>70641.0229</v>
+        <v>70639.7159</v>
       </c>
       <c r="L9" s="1">
-        <v>10.9596</v>
+        <v>10.9819</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0579</v>
+        <v>0.0572</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.7815</v>
       </c>
       <c r="C10" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D10" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E10" s="1">
-        <v>7393.0841</v>
+        <v>7377.9652</v>
       </c>
       <c r="F10" s="1">
-        <v>927.5146999999999</v>
+        <v>925.6602</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>79708.5362</v>
+        <v>79386.1681</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>79708.5362</v>
+        <v>79386.1681</v>
       </c>
       <c r="K10" s="1">
-        <v>80641.0229</v>
+        <v>80639.7159</v>
       </c>
       <c r="L10" s="1">
-        <v>10.9076</v>
+        <v>10.9298</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0215</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.9292</v>
       </c>
       <c r="C11" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D11" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E11" s="1">
-        <v>8320.5988</v>
+        <v>8303.6255</v>
       </c>
       <c r="F11" s="1">
-        <v>829.2017</v>
+        <v>864.5463</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>90937.4886</v>
+        <v>90570.13400000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>90937.4886</v>
+        <v>90570.13400000001</v>
       </c>
       <c r="K11" s="1">
-        <v>90641.0229</v>
+        <v>90639.7159</v>
       </c>
       <c r="L11" s="1">
-        <v>10.8936</v>
+        <v>10.9157</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9062.511399999999</v>
+        <v>-9467.733200000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0137</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>10.337</v>
       </c>
       <c r="C12" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D12" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E12" s="1">
-        <v>9149.800499999999</v>
+        <v>9168.1718</v>
       </c>
       <c r="F12" s="1">
-        <v>1058.0912</v>
+        <v>1016.8538</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>94581.4881</v>
+        <v>94581.6105</v>
       </c>
       <c r="I12" s="1">
-        <v>937.4886</v>
+        <v>532.2668</v>
       </c>
       <c r="J12" s="1">
-        <v>95518.9767</v>
+        <v>95113.87729999999</v>
       </c>
       <c r="K12" s="1">
-        <v>99703.5343</v>
+        <v>100107.449</v>
       </c>
       <c r="L12" s="1">
-        <v>10.8968</v>
+        <v>10.919</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10937.4886</v>
+        <v>-10532.2668</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0537</v>
+        <v>-0.0543</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>9.6417</v>
       </c>
       <c r="C13" s="1">
-        <v>9.6417</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>9.6417</v>
+        <v>9.661</v>
       </c>
       <c r="E13" s="1">
-        <v>10207.8917</v>
+        <v>10185.0256</v>
       </c>
       <c r="F13" s="1">
-        <v>1037.1615</v>
+        <v>1035.0895</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>98421.4296</v>
+        <v>98004.3903</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>98421.4296</v>
+        <v>98004.3903</v>
       </c>
       <c r="K13" s="1">
-        <v>110641.0229</v>
+        <v>110639.7159</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8388</v>
+        <v>10.863</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4117.4102</v>
+        <v>4125.6773</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5882.5898</v>
+        <v>-5874.3227</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0673</v>
+        <v>-0.06759999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>9.1572</v>
       </c>
       <c r="C14" s="1">
-        <v>9.1572</v>
+        <v>9.1389</v>
       </c>
       <c r="D14" s="1">
-        <v>9.1572</v>
+        <v>9.175599999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>11245.0532</v>
+        <v>11220.1151</v>
       </c>
       <c r="F14" s="1">
-        <v>-11245.0532</v>
+        <v>-11220.1151</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>102973.2013</v>
+        <v>102539.5102</v>
       </c>
       <c r="I14" s="1">
-        <v>4117.4102</v>
+        <v>4125.6773</v>
       </c>
       <c r="J14" s="1">
-        <v>107090.6116</v>
+        <v>106665.1875</v>
       </c>
       <c r="K14" s="1">
-        <v>120641.0229</v>
+        <v>120639.7159</v>
       </c>
       <c r="L14" s="1">
-        <v>10.7284</v>
+        <v>10.7521</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>102973.2013</v>
+        <v>102539.5102</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0123</v>
+        <v>-0.0124</v>
       </c>
     </row>
   </sheetData>
@@ -2137,6 +2137,774 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11.2587</v>
+      </c>
+      <c r="C2" s="1">
+        <v>11.2362</v>
+      </c>
+      <c r="D2" s="1">
+        <v>11.2813</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>886.4227</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11.6434</v>
+      </c>
+      <c r="C3" s="1">
+        <v>11.6201</v>
+      </c>
+      <c r="D3" s="1">
+        <v>11.6667</v>
+      </c>
+      <c r="E3" s="1">
+        <v>886.4227</v>
+      </c>
+      <c r="F3" s="1">
+        <v>839.0358</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20050</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10300.32</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10300.32</v>
+      </c>
+      <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>11.2813</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-9788.7791</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>11.3141</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11.2915</v>
+      </c>
+      <c r="D4" s="1">
+        <v>11.3368</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1725.4585</v>
+      </c>
+      <c r="F4" s="1">
+        <v>900.7146</v>
+      </c>
+      <c r="G4" s="1">
+        <v>30150.25</v>
+      </c>
+      <c r="H4" s="1">
+        <v>19483.0143</v>
+      </c>
+      <c r="I4" s="1">
+        <v>211.2209</v>
+      </c>
+      <c r="J4" s="1">
+        <v>19694.2353</v>
+      </c>
+      <c r="K4" s="1">
+        <v>19788.7791</v>
+      </c>
+      <c r="L4" s="1">
+        <v>11.4687</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N4" s="1">
+        <v>319.1122</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-9892.1088</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-0.0299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>11.003</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10.981</v>
+      </c>
+      <c r="D5" s="1">
+        <v>11.0251</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2626.173</v>
+      </c>
+      <c r="F5" s="1">
+        <v>935.9654</v>
+      </c>
+      <c r="G5" s="1">
+        <v>40301.0012</v>
+      </c>
+      <c r="H5" s="1">
+        <v>28838.0062</v>
+      </c>
+      <c r="I5" s="1">
+        <v>319.1122</v>
+      </c>
+      <c r="J5" s="1">
+        <v>29157.1183</v>
+      </c>
+      <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>11.4235</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-10319.1122</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-0.0181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>11.1102</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11.088</v>
+      </c>
+      <c r="D6" s="1">
+        <v>11.1325</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3562.1384</v>
+      </c>
+      <c r="F6" s="1">
+        <v>898.2708</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50502.5063</v>
+      </c>
+      <c r="H6" s="1">
+        <v>39496.9911</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>39496.9911</v>
+      </c>
+      <c r="K6" s="1">
+        <v>40319.1122</v>
+      </c>
+      <c r="L6" s="1">
+        <v>11.3188</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-10000</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.008699999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10.623</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10.6017</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10.6443</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4460.4093</v>
+      </c>
+      <c r="F7" s="1">
+        <v>939.47</v>
+      </c>
+      <c r="G7" s="1">
+        <v>60755.0188</v>
+      </c>
+      <c r="H7" s="1">
+        <v>47287.921</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>47287.921</v>
+      </c>
+      <c r="K7" s="1">
+        <v>50319.1122</v>
+      </c>
+      <c r="L7" s="1">
+        <v>11.2813</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>320.5925</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-9679.407499999999</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-0.0446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9.977</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9.957000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9.997</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5399.8792</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1032.369</v>
+      </c>
+      <c r="G8" s="1">
+        <v>71058.7939</v>
+      </c>
+      <c r="H8" s="1">
+        <v>53766.5974</v>
+      </c>
+      <c r="I8" s="1">
+        <v>320.5925</v>
+      </c>
+      <c r="J8" s="1">
+        <v>54087.1899</v>
+      </c>
+      <c r="K8" s="1">
+        <v>60319.1122</v>
+      </c>
+      <c r="L8" s="1">
+        <v>11.1705</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
+        <v>-10320.5925</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-0.0559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10.5542</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10.5331</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10.5754</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6432.2482</v>
+      </c>
+      <c r="F9" s="1">
+        <v>945.5907</v>
+      </c>
+      <c r="G9" s="1">
+        <v>81414.0879</v>
+      </c>
+      <c r="H9" s="1">
+        <v>67751.51330000001</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>67751.51330000001</v>
+      </c>
+      <c r="K9" s="1">
+        <v>70639.7046</v>
+      </c>
+      <c r="L9" s="1">
+        <v>10.9821</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-10000</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.0572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10.7815</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10.7599</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10.8031</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7377.8389</v>
+      </c>
+      <c r="F10" s="1">
+        <v>925.6602</v>
+      </c>
+      <c r="G10" s="1">
+        <v>91821.1583</v>
+      </c>
+      <c r="H10" s="1">
+        <v>79384.80869999999</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>79384.80869999999</v>
+      </c>
+      <c r="K10" s="1">
+        <v>80639.7046</v>
+      </c>
+      <c r="L10" s="1">
+        <v>10.93</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-10000</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10.9292</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10.9073</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10.9511</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8303.499100000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>913.1503</v>
+      </c>
+      <c r="G11" s="1">
+        <v>102280.2641</v>
+      </c>
+      <c r="H11" s="1">
+        <v>90568.7559</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>90568.7559</v>
+      </c>
+      <c r="K11" s="1">
+        <v>90639.7046</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10.9158</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-10000</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.0132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10.337</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10.3163</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10.3577</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9216.6494</v>
+      </c>
+      <c r="F12" s="1">
+        <v>965.4653</v>
+      </c>
+      <c r="G12" s="1">
+        <v>112791.6654</v>
+      </c>
+      <c r="H12" s="1">
+        <v>95081.7202</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>95081.7202</v>
+      </c>
+      <c r="K12" s="1">
+        <v>100639.7046</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10.9193</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-10000</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-0.0546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9.6417</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9.622400000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9.661</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10182.1147</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1035.0895</v>
+      </c>
+      <c r="G13" s="1">
+        <v>123355.6237</v>
+      </c>
+      <c r="H13" s="1">
+        <v>97976.3805</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>97976.3805</v>
+      </c>
+      <c r="K13" s="1">
+        <v>110639.7046</v>
+      </c>
+      <c r="L13" s="1">
+        <v>10.8661</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4147.4922</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-5852.5078</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>-0.06759999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9.1572</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9.1389</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9.175599999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11217.2042</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-11217.2042</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>102512.9078</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4147.4922</v>
+      </c>
+      <c r="J14" s="1">
+        <v>106660.4</v>
+      </c>
+      <c r="K14" s="1">
+        <v>120639.7046</v>
+      </c>
+      <c r="L14" s="1">
+        <v>10.7549</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>102512.9078</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-0.0122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q14"/>
   <sheetViews>
@@ -2224,16 +2992,16 @@
         <v>11.2587</v>
       </c>
       <c r="C2" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D2" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>888.202</v>
+        <v>886.4227</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +3039,34 @@
         <v>11.6434</v>
       </c>
       <c r="C3" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D3" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E3" s="1">
-        <v>888.202</v>
+        <v>886.4227</v>
       </c>
       <c r="F3" s="1">
-        <v>833.8036</v>
+        <v>843.3387</v>
       </c>
       <c r="G3" s="1">
-        <v>20050</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10341.6913</v>
+        <v>10300.32</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10341.6913</v>
+        <v>10300.32</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9708.3087</v>
+        <v>-9838.979600000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0342</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +3092,49 @@
         <v>11.3141</v>
       </c>
       <c r="C4" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D4" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E4" s="1">
-        <v>1722.0056</v>
+        <v>1729.7614</v>
       </c>
       <c r="F4" s="1">
-        <v>909.6341</v>
+        <v>896.2865</v>
       </c>
       <c r="G4" s="1">
-        <v>30150.25</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19482.9436</v>
+        <v>19531.6004</v>
       </c>
       <c r="I4" s="1">
-        <v>291.6913</v>
+        <v>161.0204</v>
       </c>
       <c r="J4" s="1">
-        <v>19774.6349</v>
+        <v>19692.6208</v>
       </c>
       <c r="K4" s="1">
-        <v>19708.3087</v>
+        <v>19838.9796</v>
       </c>
       <c r="L4" s="1">
-        <v>11.445</v>
+        <v>11.4692</v>
       </c>
       <c r="M4" s="1">
         <v>0.4</v>
       </c>
       <c r="N4" s="1">
-        <v>319.7527</v>
+        <v>319.1122</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9971.938599999999</v>
+        <v>-9841.908299999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0279</v>
+        <v>-0.0299</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +3145,34 @@
         <v>11.003</v>
       </c>
       <c r="C5" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D5" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E5" s="1">
-        <v>2631.6397</v>
+        <v>2626.0478</v>
       </c>
       <c r="F5" s="1">
-        <v>937.9035</v>
+        <v>935.9654</v>
       </c>
       <c r="G5" s="1">
-        <v>40301.0012</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>28955.9318</v>
+        <v>28836.6312</v>
       </c>
       <c r="I5" s="1">
-        <v>319.7527</v>
+        <v>319.1122</v>
       </c>
       <c r="J5" s="1">
-        <v>29275.6845</v>
+        <v>29155.7434</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.3997</v>
+        <v>11.424</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10319.7527</v>
+        <v>-10319.1122</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0168</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +3198,34 @@
         <v>11.1102</v>
       </c>
       <c r="C6" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D6" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E6" s="1">
-        <v>3569.5433</v>
+        <v>3562.0132</v>
       </c>
       <c r="F6" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G6" s="1">
-        <v>50502.5063</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39658.3395</v>
+        <v>39495.6027</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39658.3395</v>
+        <v>39495.6027</v>
       </c>
       <c r="K6" s="1">
-        <v>40319.7527</v>
+        <v>40319.1122</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2955</v>
+        <v>11.3192</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2472,7 +3240,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0097</v>
+        <v>0.008699999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +3251,49 @@
         <v>10.623</v>
       </c>
       <c r="C7" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D7" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E7" s="1">
-        <v>4469.609</v>
+        <v>4460.2841</v>
       </c>
       <c r="F7" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G7" s="1">
-        <v>60755.0188</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>47480.656</v>
+        <v>47286.5935</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47480.656</v>
+        <v>47286.5935</v>
       </c>
       <c r="K7" s="1">
-        <v>50319.7527</v>
+        <v>50319.1122</v>
       </c>
       <c r="L7" s="1">
-        <v>11.2582</v>
+        <v>11.2816</v>
       </c>
       <c r="M7" s="1">
         <v>0.1</v>
       </c>
       <c r="N7" s="1">
-        <v>321.2589</v>
+        <v>320.5812</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9678.741099999999</v>
+        <v>-9679.418799999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0439</v>
+        <v>-0.0446</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +3304,34 @@
         <v>9.977</v>
       </c>
       <c r="C8" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E8" s="1">
-        <v>5410.9626</v>
+        <v>5399.754</v>
       </c>
       <c r="F8" s="1">
-        <v>1034.5053</v>
+        <v>1032.3678</v>
       </c>
       <c r="G8" s="1">
-        <v>71058.7939</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>53985.1742</v>
+        <v>53765.3507</v>
       </c>
       <c r="I8" s="1">
-        <v>321.2589</v>
+        <v>320.5812</v>
       </c>
       <c r="J8" s="1">
-        <v>54306.4331</v>
+        <v>54085.9319</v>
       </c>
       <c r="K8" s="1">
-        <v>60319.7527</v>
+        <v>60319.1122</v>
       </c>
       <c r="L8" s="1">
-        <v>11.1477</v>
+        <v>11.1707</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10321.2589</v>
+        <v>-10320.5812</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0552</v>
+        <v>-0.0559</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +3357,34 @@
         <v>10.5542</v>
       </c>
       <c r="C9" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D9" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E9" s="1">
-        <v>6445.4679</v>
+        <v>6432.1218</v>
       </c>
       <c r="F9" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G9" s="1">
-        <v>81414.0879</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>68026.7571</v>
+        <v>67750.1826</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>68026.7571</v>
+        <v>67750.1826</v>
       </c>
       <c r="K9" s="1">
-        <v>70641.0116</v>
+        <v>70639.6933</v>
       </c>
       <c r="L9" s="1">
-        <v>10.9598</v>
+        <v>10.9823</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2631,7 +3399,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0579</v>
+        <v>0.0572</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +3410,34 @@
         <v>10.7815</v>
       </c>
       <c r="C10" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D10" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E10" s="1">
-        <v>7392.958</v>
+        <v>7377.7126</v>
       </c>
       <c r="F10" s="1">
-        <v>927.5146999999999</v>
+        <v>925.6602</v>
       </c>
       <c r="G10" s="1">
-        <v>91821.1583</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>79707.1765</v>
+        <v>79383.44929999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>79707.1765</v>
+        <v>79383.44929999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80641.0116</v>
+        <v>80639.6933</v>
       </c>
       <c r="L10" s="1">
-        <v>10.9078</v>
+        <v>10.9302</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2684,7 +3452,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0215</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +3463,34 @@
         <v>10.9292</v>
       </c>
       <c r="C11" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D11" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E11" s="1">
-        <v>8320.4727</v>
+        <v>8303.372799999999</v>
       </c>
       <c r="F11" s="1">
-        <v>914.9801</v>
+        <v>913.1503</v>
       </c>
       <c r="G11" s="1">
-        <v>102280.2641</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>90936.1103</v>
+        <v>90567.37790000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>90936.1103</v>
+        <v>90567.37790000001</v>
       </c>
       <c r="K11" s="1">
-        <v>90641.0116</v>
+        <v>90639.6933</v>
       </c>
       <c r="L11" s="1">
-        <v>10.8937</v>
+        <v>10.916</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2737,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0137</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +3516,34 @@
         <v>10.337</v>
       </c>
       <c r="C12" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D12" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E12" s="1">
-        <v>9235.452799999999</v>
+        <v>9216.5231</v>
       </c>
       <c r="F12" s="1">
-        <v>967.3987</v>
+        <v>965.4653</v>
       </c>
       <c r="G12" s="1">
-        <v>112791.6654</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>95466.87519999999</v>
+        <v>95080.41680000001</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>95466.87519999999</v>
+        <v>95080.41680000001</v>
       </c>
       <c r="K12" s="1">
-        <v>100641.0116</v>
+        <v>100639.6933</v>
       </c>
       <c r="L12" s="1">
-        <v>10.8972</v>
+        <v>10.9195</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2790,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0542</v>
+        <v>-0.0546</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +3569,49 @@
         <v>9.6417</v>
       </c>
       <c r="C13" s="1">
-        <v>9.6417</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>9.6417</v>
+        <v>9.661</v>
       </c>
       <c r="E13" s="1">
-        <v>10202.8514</v>
+        <v>10181.9884</v>
       </c>
       <c r="F13" s="1">
-        <v>1037.1615</v>
+        <v>1035.0895</v>
       </c>
       <c r="G13" s="1">
-        <v>123355.6237</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>98372.83259999999</v>
+        <v>97975.1648</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>98372.83259999999</v>
+        <v>97975.1648</v>
       </c>
       <c r="K13" s="1">
-        <v>110641.0116</v>
+        <v>110639.6933</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8441</v>
+        <v>10.8662</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4155.9537</v>
+        <v>4147.4354</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5844.0463</v>
+        <v>-5852.5646</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0673</v>
+        <v>-0.06759999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +3622,34 @@
         <v>9.1572</v>
       </c>
       <c r="C14" s="1">
-        <v>9.1572</v>
+        <v>9.1389</v>
       </c>
       <c r="D14" s="1">
-        <v>9.1572</v>
+        <v>9.175599999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>11240.0129</v>
+        <v>11217.0779</v>
       </c>
       <c r="F14" s="1">
-        <v>-11240.0129</v>
+        <v>-11217.0779</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>102927.0463</v>
+        <v>102511.7532</v>
       </c>
       <c r="I14" s="1">
-        <v>4155.9537</v>
+        <v>4147.4354</v>
       </c>
       <c r="J14" s="1">
-        <v>107083.0001</v>
+        <v>106659.1886</v>
       </c>
       <c r="K14" s="1">
-        <v>120641.0116</v>
+        <v>120639.6933</v>
       </c>
       <c r="L14" s="1">
-        <v>10.7332</v>
+        <v>10.755</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,778 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>102927.0463</v>
+        <v>102511.7532</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0119</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>11.2587</v>
-      </c>
-      <c r="C2" s="1">
-        <v>11.2586</v>
-      </c>
-      <c r="D2" s="1">
-        <v>11.2587</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>888.202</v>
-      </c>
-      <c r="G2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P2" s="1">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>11.6434</v>
-      </c>
-      <c r="C3" s="1">
-        <v>11.6434</v>
-      </c>
-      <c r="D3" s="1">
-        <v>11.6434</v>
-      </c>
-      <c r="E3" s="1">
-        <v>888.202</v>
-      </c>
-      <c r="F3" s="1">
-        <v>838.0979</v>
-      </c>
-      <c r="G3" s="1">
-        <v>20100</v>
-      </c>
-      <c r="H3" s="1">
-        <v>10341.6913</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>10341.6913</v>
-      </c>
-      <c r="K3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>11.2587</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P3" s="1">
-        <v>-9758.3087</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0.0342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>11.3141</v>
-      </c>
-      <c r="C4" s="1">
-        <v>11.3141</v>
-      </c>
-      <c r="D4" s="1">
-        <v>11.3141</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1726.2999</v>
-      </c>
-      <c r="F4" s="1">
-        <v>905.2148</v>
-      </c>
-      <c r="G4" s="1">
-        <v>30301</v>
-      </c>
-      <c r="H4" s="1">
-        <v>19531.5295</v>
-      </c>
-      <c r="I4" s="1">
-        <v>241.6913</v>
-      </c>
-      <c r="J4" s="1">
-        <v>19773.2208</v>
-      </c>
-      <c r="K4" s="1">
-        <v>19758.3087</v>
-      </c>
-      <c r="L4" s="1">
-        <v>11.4455</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N4" s="1">
-        <v>319.7527</v>
-      </c>
-      <c r="O4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P4" s="1">
-        <v>-9921.938599999999</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>-0.0279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>11.003</v>
-      </c>
-      <c r="C5" s="1">
-        <v>11.003</v>
-      </c>
-      <c r="D5" s="1">
-        <v>11.003</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2631.5147</v>
-      </c>
-      <c r="F5" s="1">
-        <v>937.9035</v>
-      </c>
-      <c r="G5" s="1">
-        <v>40604.01</v>
-      </c>
-      <c r="H5" s="1">
-        <v>28954.5565</v>
-      </c>
-      <c r="I5" s="1">
-        <v>319.7527</v>
-      </c>
-      <c r="J5" s="1">
-        <v>29274.3093</v>
-      </c>
-      <c r="K5" s="1">
-        <v>30000</v>
-      </c>
-      <c r="L5" s="1">
-        <v>11.4003</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P5" s="1">
-        <v>-10319.7527</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>-0.0168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>11.1102</v>
-      </c>
-      <c r="C6" s="1">
-        <v>11.1102</v>
-      </c>
-      <c r="D6" s="1">
-        <v>11.1103</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3569.4183</v>
-      </c>
-      <c r="F6" s="1">
-        <v>900.0657</v>
-      </c>
-      <c r="G6" s="1">
-        <v>51010.0501</v>
-      </c>
-      <c r="H6" s="1">
-        <v>39656.9509</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>39656.9509</v>
-      </c>
-      <c r="K6" s="1">
-        <v>40319.7527</v>
-      </c>
-      <c r="L6" s="1">
-        <v>11.2959</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P6" s="1">
-        <v>-10000</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0.0097</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10.623</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10.623</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10.623</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4469.484</v>
-      </c>
-      <c r="F7" s="1">
-        <v>941.3537</v>
-      </c>
-      <c r="G7" s="1">
-        <v>61520.1506</v>
-      </c>
-      <c r="H7" s="1">
-        <v>47479.3283</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>47479.3283</v>
-      </c>
-      <c r="K7" s="1">
-        <v>50319.7527</v>
-      </c>
-      <c r="L7" s="1">
-        <v>11.2585</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>321.2476</v>
-      </c>
-      <c r="O7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P7" s="1">
-        <v>-9678.752399999999</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>-0.0439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>9.977</v>
-      </c>
-      <c r="C8" s="1">
-        <v>9.977</v>
-      </c>
-      <c r="D8" s="1">
-        <v>9.977</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5410.8376</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1034.5041</v>
-      </c>
-      <c r="G8" s="1">
-        <v>72135.3521</v>
-      </c>
-      <c r="H8" s="1">
-        <v>53983.9272</v>
-      </c>
-      <c r="I8" s="1">
-        <v>321.2476</v>
-      </c>
-      <c r="J8" s="1">
-        <v>54305.1748</v>
-      </c>
-      <c r="K8" s="1">
-        <v>60319.7527</v>
-      </c>
-      <c r="L8" s="1">
-        <v>11.148</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P8" s="1">
-        <v>-10321.2476</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>-0.0552</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10.5542</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10.5542</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10.5542</v>
-      </c>
-      <c r="E9" s="1">
-        <v>6445.3418</v>
-      </c>
-      <c r="F9" s="1">
-        <v>947.4901</v>
-      </c>
-      <c r="G9" s="1">
-        <v>82856.7056</v>
-      </c>
-      <c r="H9" s="1">
-        <v>68025.4261</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>68025.4261</v>
-      </c>
-      <c r="K9" s="1">
-        <v>70641.0004</v>
-      </c>
-      <c r="L9" s="1">
-        <v>10.96</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P9" s="1">
-        <v>-10000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0.0579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10.7815</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10.7815</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10.7815</v>
-      </c>
-      <c r="E10" s="1">
-        <v>7392.8319</v>
-      </c>
-      <c r="F10" s="1">
-        <v>927.5146999999999</v>
-      </c>
-      <c r="G10" s="1">
-        <v>93685.2727</v>
-      </c>
-      <c r="H10" s="1">
-        <v>79705.8168</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>79705.8168</v>
-      </c>
-      <c r="K10" s="1">
-        <v>80641.0004</v>
-      </c>
-      <c r="L10" s="1">
-        <v>10.908</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P10" s="1">
-        <v>-10000</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0.0215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10.9292</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10.9292</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10.9292</v>
-      </c>
-      <c r="E11" s="1">
-        <v>8320.346600000001</v>
-      </c>
-      <c r="F11" s="1">
-        <v>914.9801</v>
-      </c>
-      <c r="G11" s="1">
-        <v>104622.1254</v>
-      </c>
-      <c r="H11" s="1">
-        <v>90934.732</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>90934.732</v>
-      </c>
-      <c r="K11" s="1">
-        <v>90641.0004</v>
-      </c>
-      <c r="L11" s="1">
-        <v>10.8939</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P11" s="1">
-        <v>-10000</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0.0137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10.337</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10.337</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10.337</v>
-      </c>
-      <c r="E12" s="1">
-        <v>9235.3266</v>
-      </c>
-      <c r="F12" s="1">
-        <v>967.3987</v>
-      </c>
-      <c r="G12" s="1">
-        <v>115668.3467</v>
-      </c>
-      <c r="H12" s="1">
-        <v>95465.57150000001</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>95465.57150000001</v>
-      </c>
-      <c r="K12" s="1">
-        <v>100641.0004</v>
-      </c>
-      <c r="L12" s="1">
-        <v>10.8974</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P12" s="1">
-        <v>-10000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>-0.0542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>9.6417</v>
-      </c>
-      <c r="C13" s="1">
-        <v>9.6417</v>
-      </c>
-      <c r="D13" s="1">
-        <v>9.6417</v>
-      </c>
-      <c r="E13" s="1">
-        <v>10202.7253</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1037.1615</v>
-      </c>
-      <c r="G13" s="1">
-        <v>126825.0301</v>
-      </c>
-      <c r="H13" s="1">
-        <v>98371.61659999999</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>98371.61659999999</v>
-      </c>
-      <c r="K13" s="1">
-        <v>110641.0004</v>
-      </c>
-      <c r="L13" s="1">
-        <v>10.8443</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N13" s="1">
-        <v>4155.897</v>
-      </c>
-      <c r="O13" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P13" s="1">
-        <v>-5844.103</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>-0.0673</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>9.1572</v>
-      </c>
-      <c r="C14" s="1">
-        <v>9.1572</v>
-      </c>
-      <c r="D14" s="1">
-        <v>9.1572</v>
-      </c>
-      <c r="E14" s="1">
-        <v>11239.8868</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-11239.8868</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>102925.8915</v>
-      </c>
-      <c r="I14" s="1">
-        <v>4155.897</v>
-      </c>
-      <c r="J14" s="1">
-        <v>107081.7885</v>
-      </c>
-      <c r="K14" s="1">
-        <v>120641.0004</v>
-      </c>
-      <c r="L14" s="1">
-        <v>10.7333</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>102925.8915</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>-0.0119</v>
+        <v>-0.0122</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>11.2587</v>
       </c>
       <c r="C2" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D2" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>888.202</v>
+        <v>886.4227</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>11.6434</v>
       </c>
       <c r="C3" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D3" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E3" s="1">
-        <v>888.202</v>
+        <v>886.4227</v>
       </c>
       <c r="F3" s="1">
-        <v>842.3921</v>
+        <v>847.6416</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10341.6913</v>
+        <v>10300.32</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10341.6913</v>
+        <v>10300.32</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9808.3087</v>
+        <v>-9889.1801</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0342</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>11.3141</v>
       </c>
       <c r="C4" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D4" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E4" s="1">
-        <v>1730.5942</v>
+        <v>1734.0643</v>
       </c>
       <c r="F4" s="1">
-        <v>900.7956</v>
+        <v>891.8584</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19580.1153</v>
+        <v>19580.1865</v>
       </c>
       <c r="I4" s="1">
-        <v>191.6913</v>
+        <v>110.8199</v>
       </c>
       <c r="J4" s="1">
-        <v>19771.8067</v>
+        <v>19691.0064</v>
       </c>
       <c r="K4" s="1">
-        <v>19808.3087</v>
+        <v>19889.1801</v>
       </c>
       <c r="L4" s="1">
-        <v>11.446</v>
+        <v>11.4697</v>
       </c>
       <c r="M4" s="1">
         <v>0.4</v>
       </c>
       <c r="N4" s="1">
-        <v>319.7527</v>
+        <v>319.1122</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9871.938599999999</v>
+        <v>-9791.707700000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.028</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>11.003</v>
       </c>
       <c r="C5" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D5" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E5" s="1">
-        <v>2631.3897</v>
+        <v>2625.9226</v>
       </c>
       <c r="F5" s="1">
-        <v>937.9035</v>
+        <v>935.9654</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>28953.1813</v>
+        <v>28835.2562</v>
       </c>
       <c r="I5" s="1">
-        <v>319.7527</v>
+        <v>319.1122</v>
       </c>
       <c r="J5" s="1">
-        <v>29272.934</v>
+        <v>29154.3684</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.4008</v>
+        <v>11.4246</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10319.7527</v>
+        <v>-10319.1122</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0168</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>11.1102</v>
       </c>
       <c r="C6" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D6" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E6" s="1">
-        <v>3569.2933</v>
+        <v>3561.888</v>
       </c>
       <c r="F6" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39655.5623</v>
+        <v>39494.2143</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39655.5623</v>
+        <v>39494.2143</v>
       </c>
       <c r="K6" s="1">
-        <v>40319.7527</v>
+        <v>40319.1122</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2963</v>
+        <v>11.3196</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0097</v>
+        <v>0.008699999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>10.623</v>
       </c>
       <c r="C7" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D7" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E7" s="1">
-        <v>4469.359</v>
+        <v>4460.1588</v>
       </c>
       <c r="F7" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>47478.0006</v>
+        <v>47285.266</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47478.0006</v>
+        <v>47285.266</v>
       </c>
       <c r="K7" s="1">
-        <v>50319.7527</v>
+        <v>50319.1122</v>
       </c>
       <c r="L7" s="1">
-        <v>11.2588</v>
+        <v>11.2819</v>
       </c>
       <c r="M7" s="1">
         <v>0.1</v>
       </c>
       <c r="N7" s="1">
-        <v>321.2364</v>
+        <v>320.5699</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9678.7636</v>
+        <v>-9679.4301</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0439</v>
+        <v>-0.0446</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>9.977</v>
       </c>
       <c r="C8" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E8" s="1">
-        <v>5410.7127</v>
+        <v>5399.6288</v>
       </c>
       <c r="F8" s="1">
-        <v>1034.503</v>
+        <v>1032.3667</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>53982.6802</v>
+        <v>53764.1039</v>
       </c>
       <c r="I8" s="1">
-        <v>321.2364</v>
+        <v>320.5699</v>
       </c>
       <c r="J8" s="1">
-        <v>54303.9166</v>
+        <v>54084.6739</v>
       </c>
       <c r="K8" s="1">
-        <v>60319.7527</v>
+        <v>60319.1122</v>
       </c>
       <c r="L8" s="1">
-        <v>11.1482</v>
+        <v>11.171</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10321.2364</v>
+        <v>-10320.5699</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0552</v>
+        <v>-0.0559</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>10.5542</v>
       </c>
       <c r="C9" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D9" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E9" s="1">
-        <v>6445.2157</v>
+        <v>6431.9955</v>
       </c>
       <c r="F9" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>68024.09510000001</v>
+        <v>67748.8518</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>68024.09510000001</v>
+        <v>67748.8518</v>
       </c>
       <c r="K9" s="1">
-        <v>70640.98910000001</v>
+        <v>70639.68210000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.9602</v>
+        <v>10.9825</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0579</v>
+        <v>0.0572</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.7815</v>
       </c>
       <c r="C10" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D10" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E10" s="1">
-        <v>7392.7058</v>
+        <v>7377.5862</v>
       </c>
       <c r="F10" s="1">
-        <v>927.5146999999999</v>
+        <v>925.6602</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>79704.4571</v>
+        <v>79382.08990000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>79704.4571</v>
+        <v>79382.08990000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80640.98910000001</v>
+        <v>80639.68210000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.9082</v>
+        <v>10.9304</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0215</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.9292</v>
       </c>
       <c r="C11" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D11" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E11" s="1">
-        <v>8320.220499999999</v>
+        <v>8303.2464</v>
       </c>
       <c r="F11" s="1">
-        <v>914.9801</v>
+        <v>913.1503</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>90933.3536</v>
+        <v>90565.9999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>90933.3536</v>
+        <v>90565.9999</v>
       </c>
       <c r="K11" s="1">
-        <v>90640.98910000001</v>
+        <v>90639.68210000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.8941</v>
+        <v>10.9162</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0137</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>10.337</v>
       </c>
       <c r="C12" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D12" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E12" s="1">
-        <v>9235.200500000001</v>
+        <v>9216.396699999999</v>
       </c>
       <c r="F12" s="1">
-        <v>967.3987</v>
+        <v>965.4653</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>95464.26790000001</v>
+        <v>95079.1134</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>95464.26790000001</v>
+        <v>95079.1134</v>
       </c>
       <c r="K12" s="1">
-        <v>100640.9891</v>
+        <v>100639.6821</v>
       </c>
       <c r="L12" s="1">
-        <v>10.8975</v>
+        <v>10.9196</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0542</v>
+        <v>-0.0546</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>9.6417</v>
       </c>
       <c r="C13" s="1">
-        <v>9.6417</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>9.6417</v>
+        <v>9.661</v>
       </c>
       <c r="E13" s="1">
-        <v>10202.5992</v>
+        <v>10181.862</v>
       </c>
       <c r="F13" s="1">
-        <v>1037.1615</v>
+        <v>1035.0895</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>98370.4007</v>
+        <v>97973.9491</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>98370.4007</v>
+        <v>97973.9491</v>
       </c>
       <c r="K13" s="1">
-        <v>110640.9891</v>
+        <v>110639.6821</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8444</v>
+        <v>10.8664</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4155.8402</v>
+        <v>4147.3785</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5844.1598</v>
+        <v>-5852.6215</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0673</v>
+        <v>-0.06759999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>9.1572</v>
       </c>
       <c r="C14" s="1">
-        <v>9.1572</v>
+        <v>9.1389</v>
       </c>
       <c r="D14" s="1">
-        <v>9.1572</v>
+        <v>9.175599999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>11239.7607</v>
+        <v>11216.9516</v>
       </c>
       <c r="F14" s="1">
-        <v>-11239.7607</v>
+        <v>-11216.9516</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>102924.7366</v>
+        <v>102510.5986</v>
       </c>
       <c r="I14" s="1">
-        <v>4155.8402</v>
+        <v>4147.3785</v>
       </c>
       <c r="J14" s="1">
-        <v>107080.5769</v>
+        <v>106657.9771</v>
       </c>
       <c r="K14" s="1">
-        <v>120640.9891</v>
+        <v>120639.6821</v>
       </c>
       <c r="L14" s="1">
-        <v>10.7334</v>
+        <v>10.7551</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>102924.7366</v>
+        <v>102510.5986</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0119</v>
+        <v>-0.0122</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.7337</v>
+        <v>10.7553</v>
       </c>
       <c r="D3" s="1">
-        <v>10.7284</v>
+        <v>10.7521</v>
       </c>
       <c r="E3" s="1">
-        <v>10.7332</v>
+        <v>10.7549</v>
       </c>
       <c r="F3" s="1">
-        <v>10.7333</v>
+        <v>10.755</v>
       </c>
       <c r="G3" s="1">
-        <v>10.7334</v>
+        <v>10.7551</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.1951</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1406</v>
+        <v>-0.1531</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1399</v>
+        <v>-0.1525</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1401</v>
+        <v>-0.1527</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1401</v>
+        <v>-0.1527</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1402</v>
+        <v>-0.1528</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1387</v>
       </c>
       <c r="C5" s="3">
-        <v>0.131</v>
+        <v>0.1298</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1312</v>
+        <v>0.1301</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1314</v>
+        <v>0.1302</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1314</v>
+        <v>0.1302</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1314</v>
+        <v>0.1302</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-1.553</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.2284</v>
+        <v>-1.3357</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.2209</v>
+        <v>-1.3286</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.2208</v>
+        <v>-1.3287</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.2213</v>
+        <v>-1.3292</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.2217</v>
+        <v>-1.3297</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1944</v>
+        <v>-0.2005</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1938</v>
+        <v>-0.1999</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1937</v>
+        <v>-0.1998</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1937</v>
+        <v>-0.1998</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1937</v>
+        <v>-0.1998</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4786.2089</v>
+        <v>4776.5921</v>
       </c>
       <c r="D8" s="1">
-        <v>4758.4331</v>
+        <v>4765.3932</v>
       </c>
       <c r="E8" s="1">
-        <v>4796.9654</v>
+        <v>4787.1968</v>
       </c>
       <c r="F8" s="1">
-        <v>4796.8974</v>
+        <v>4787.1287</v>
       </c>
       <c r="G8" s="1">
-        <v>4796.8294</v>
+        <v>4787.0606</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P106_KFSDIV.xlsx
+++ b/output/1Y_P106_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>5626.2126</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8877</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8881</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8877</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8877</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8877</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
